--- a/ta/ind.xlsx
+++ b/ta/ind.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\tekal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716B232-9137-4768-AD41-2E73A535E471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD3E0DE-6A55-4654-B7A6-73F7489A8A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="343">
   <si>
     <t>Accumulation/Distribution</t>
   </si>
@@ -1051,13 +1051,16 @@
   </si>
   <si>
     <t>ADX</t>
+  </si>
+  <si>
+    <t>js2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,6 +1070,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1089,22 +1100,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1149,20 +1166,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:N210" totalsRowShown="0">
-  <autoFilter ref="A1:N210" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92DE148C-375F-4F3C-A01A-10AE6F224476}" name="Table1" displayName="Table1" ref="A1:O210" totalsRowShown="0">
+  <autoFilter ref="A1:O210" xr:uid="{26571376-65CE-4DFA-848F-9D8C41D4D272}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{4868546D-E70B-4A18-9F7B-81FF9FB1880A}" name="Name"/>
     <tableColumn id="2" xr3:uid="{95B950FC-7417-4109-B485-441C5940D7E2}" name="Acronym"/>
     <tableColumn id="3" xr3:uid="{46B40589-25EC-45E8-BBFE-4E83654F850E}" name="Type"/>
     <tableColumn id="4" xr3:uid="{F368BB40-6A0A-4EB2-92D6-73F62EC4B761}" name="Lead/Lag"/>
-    <tableColumn id="5" xr3:uid="{A966F495-6A91-4860-9F68-B32DFCF29EB9}" name="tv" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B04D38BA-750C-42BF-8776-4BB614277482}" name="mt5" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{D2BA039E-10A9-414D-B17D-FB19508FCEB4}" name="tt" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{F554DD79-31B8-4647-A2C7-D6C5404040D4}" name="tc2" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{017A7E09-53A8-4CEF-AE3F-5E6ECC9E1B62}" name="mio" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{ABD9386F-EEDE-4C88-907E-3AEF79082283}" name="pc" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{FEAF1EE7-AB95-4690-86A4-73E18ED40FA6}" name="js" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A966F495-6A91-4860-9F68-B32DFCF29EB9}" name="tv" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B04D38BA-750C-42BF-8776-4BB614277482}" name="mt5" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D2BA039E-10A9-414D-B17D-FB19508FCEB4}" name="tt" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{F554DD79-31B8-4647-A2C7-D6C5404040D4}" name="tc2" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{017A7E09-53A8-4CEF-AE3F-5E6ECC9E1B62}" name="mio" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{ABD9386F-EEDE-4C88-907E-3AEF79082283}" name="pc" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{FEAF1EE7-AB95-4690-86A4-73E18ED40FA6}" name="js" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{A783F806-3E82-4F72-A8D5-5CA8B2D7AFF6}" name="js2" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{2FB839E2-A84F-4D1B-89CF-1FFC3B114A08}" name="py" dataDxfId="2"/>
     <tableColumn id="15" xr3:uid="{38EF0105-FED7-4CB6-9E15-CB2F32D3AB5C}" name="py2" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{7BE96C0B-1FFA-45C1-809C-F3548F119714}" name="mat" dataDxfId="0"/>
@@ -1434,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:O210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,11 +1464,11 @@
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="13" width="7.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="5" max="14" width="7.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -1485,16 +1503,19 @@
         <v>105</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>274</v>
       </c>
@@ -1531,8 +1552,11 @@
       <c r="N2" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -1564,13 +1588,16 @@
         <v>102</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -1607,8 +1634,11 @@
       <c r="N4" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -1637,7 +1667,7 @@
         <v>102</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>102</v>
@@ -1645,8 +1675,11 @@
       <c r="N5" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1711,7 @@
         <v>101</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>101</v>
@@ -1686,8 +1719,11 @@
       <c r="N6" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>322</v>
       </c>
@@ -1719,13 +1755,16 @@
         <v>102</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1790,7 @@
         <v>102</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>102</v>
@@ -1759,8 +1798,11 @@
       <c r="N8" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -1797,8 +1839,11 @@
       <c r="N9" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1835,8 +1880,11 @@
       <c r="N10" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -1870,8 +1918,11 @@
       <c r="N11" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>278</v>
       </c>
@@ -1908,8 +1959,11 @@
       <c r="N12" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -1946,8 +2000,11 @@
       <c r="N13" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>280</v>
       </c>
@@ -1981,8 +2038,11 @@
       <c r="N14" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2016,8 +2076,11 @@
       <c r="N15" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2046,16 +2109,19 @@
         <v>102</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -2084,16 +2150,19 @@
         <v>102</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2125,16 +2194,19 @@
         <v>101</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>101</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>328</v>
       </c>
@@ -2166,13 +2238,16 @@
         <v>102</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -2212,8 +2287,11 @@
       <c r="N20" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -2245,13 +2323,16 @@
         <v>102</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2292,10 +2373,13 @@
         <v>101</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -2327,13 +2411,16 @@
         <v>102</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2368,13 +2455,16 @@
         <v>101</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2403,16 +2493,19 @@
         <v>102</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -2449,8 +2542,11 @@
       <c r="N26" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -2487,8 +2583,11 @@
       <c r="N27" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>333</v>
       </c>
@@ -2520,13 +2619,16 @@
         <v>102</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -2563,8 +2665,11 @@
       <c r="N29" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2607,8 +2712,11 @@
       <c r="N30" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2642,8 +2750,11 @@
       <c r="N31" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2669,7 +2780,7 @@
         <v>102</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>102</v>
@@ -2677,8 +2788,11 @@
       <c r="N32" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>281</v>
       </c>
@@ -2715,8 +2829,11 @@
       <c r="N33" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -2753,8 +2870,11 @@
       <c r="N34" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2786,16 +2906,19 @@
         <v>102</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2827,16 +2950,19 @@
         <v>102</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>284</v>
       </c>
@@ -2868,10 +2994,13 @@
         <v>102</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2905,8 +3034,11 @@
       <c r="N38" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2935,16 +3067,19 @@
         <v>102</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2978,8 +3113,11 @@
       <c r="N40" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3013,8 +3151,11 @@
       <c r="N41" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3049,16 +3190,19 @@
         <v>101</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>101</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -3095,8 +3239,11 @@
       <c r="N43" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -3130,8 +3277,11 @@
       <c r="N44" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -3157,7 +3307,7 @@
         <v>102</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>102</v>
@@ -3165,8 +3315,11 @@
       <c r="N45" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -3195,16 +3348,19 @@
         <v>102</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>287</v>
       </c>
@@ -3241,8 +3397,11 @@
       <c r="N47" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -3276,8 +3435,11 @@
       <c r="N48" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>288</v>
       </c>
@@ -3311,8 +3473,11 @@
       <c r="N49" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -3346,8 +3511,11 @@
       <c r="N50" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>213</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="N51" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -3414,16 +3585,19 @@
         <v>102</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -3457,8 +3631,11 @@
       <c r="N53" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -3493,13 +3670,16 @@
         <v>102</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>215</v>
       </c>
@@ -3533,8 +3713,11 @@
       <c r="N55" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -3569,13 +3752,16 @@
         <v>101</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -3607,13 +3793,16 @@
         <v>102</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>216</v>
       </c>
@@ -3647,8 +3836,11 @@
       <c r="N58" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -3682,8 +3874,11 @@
       <c r="N59" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -3715,16 +3910,19 @@
         <v>102</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -3759,13 +3957,16 @@
         <v>101</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>218</v>
       </c>
@@ -3799,8 +4000,11 @@
       <c r="N62" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>217</v>
       </c>
@@ -3837,8 +4041,11 @@
       <c r="N63" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>289</v>
       </c>
@@ -3867,7 +4074,7 @@
         <v>102</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>102</v>
@@ -3875,8 +4082,11 @@
       <c r="N64" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -3902,7 +4112,7 @@
         <v>102</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>102</v>
@@ -3910,8 +4120,11 @@
       <c r="N65" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -3948,8 +4161,11 @@
       <c r="N66" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>154</v>
       </c>
@@ -3986,8 +4202,11 @@
       <c r="N67" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -4013,7 +4232,7 @@
         <v>102</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>102</v>
@@ -4021,8 +4240,11 @@
       <c r="N68" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -4051,7 +4273,7 @@
         <v>102</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>102</v>
@@ -4059,8 +4281,11 @@
       <c r="N69" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>221</v>
       </c>
@@ -4089,7 +4314,7 @@
         <v>102</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>102</v>
@@ -4097,8 +4322,11 @@
       <c r="N70" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>290</v>
       </c>
@@ -4132,8 +4360,11 @@
       <c r="N71" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>323</v>
       </c>
@@ -4165,10 +4396,13 @@
         <v>102</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -4202,8 +4436,11 @@
       <c r="N73" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="N74" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -4264,7 +4504,7 @@
         <v>102</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>102</v>
@@ -4272,8 +4512,11 @@
       <c r="N75" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -4308,13 +4551,16 @@
         <v>101</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>258</v>
       </c>
@@ -4352,10 +4598,13 @@
         <v>101</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>224</v>
       </c>
@@ -4389,8 +4638,11 @@
       <c r="N78" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -4428,13 +4680,16 @@
         <v>101</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -4468,8 +4723,11 @@
       <c r="N80" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -4504,13 +4762,16 @@
         <v>101</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>291</v>
       </c>
@@ -4547,8 +4808,11 @@
       <c r="N82" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -4574,7 +4838,7 @@
         <v>102</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>102</v>
@@ -4582,8 +4846,11 @@
       <c r="N83" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>226</v>
       </c>
@@ -4615,13 +4882,16 @@
         <v>102</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -4653,13 +4923,16 @@
         <v>102</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -4693,8 +4966,11 @@
       <c r="N86" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>157</v>
       </c>
@@ -4726,13 +5002,16 @@
         <v>102</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>225</v>
       </c>
@@ -4766,8 +5045,11 @@
       <c r="N88" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -4799,13 +5081,16 @@
         <v>102</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>324</v>
       </c>
@@ -4837,10 +5122,13 @@
         <v>102</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -4877,8 +5165,11 @@
       <c r="N91" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -4912,8 +5203,11 @@
       <c r="N92" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -4939,7 +5233,7 @@
         <v>102</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>102</v>
@@ -4947,8 +5241,11 @@
       <c r="N93" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -4991,8 +5288,11 @@
       <c r="N94" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -5018,7 +5318,7 @@
         <v>102</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>102</v>
@@ -5026,8 +5326,11 @@
       <c r="N95" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -5059,16 +5362,19 @@
         <v>102</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -5100,13 +5406,16 @@
         <v>102</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -5135,13 +5444,16 @@
         <v>102</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>295</v>
       </c>
@@ -5178,8 +5490,11 @@
       <c r="N99" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>336</v>
       </c>
@@ -5211,13 +5526,16 @@
         <v>102</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>292</v>
       </c>
@@ -5254,8 +5572,11 @@
       <c r="N101" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>293</v>
       </c>
@@ -5287,13 +5608,16 @@
         <v>102</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -5325,13 +5649,16 @@
         <v>102</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -5363,13 +5690,16 @@
         <v>102</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -5401,13 +5731,16 @@
         <v>102</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -5439,13 +5772,16 @@
         <v>102</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -5479,8 +5815,11 @@
       <c r="N107" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -5509,16 +5848,19 @@
         <v>102</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -5552,8 +5894,11 @@
       <c r="N109" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -5591,10 +5936,13 @@
         <v>101</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>227</v>
       </c>
@@ -5628,8 +5976,11 @@
       <c r="N111" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>45</v>
       </c>
@@ -5664,16 +6015,19 @@
         <v>101</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -5707,8 +6061,11 @@
       <c r="N113" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>47</v>
       </c>
@@ -5743,16 +6100,19 @@
         <v>101</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>48</v>
       </c>
@@ -5787,16 +6147,19 @@
         <v>101</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -5828,16 +6191,19 @@
         <v>102</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>49</v>
       </c>
@@ -5871,8 +6237,11 @@
       <c r="N117" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>296</v>
       </c>
@@ -5909,8 +6278,11 @@
       <c r="N118" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>297</v>
       </c>
@@ -5947,8 +6319,11 @@
       <c r="N119" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>299</v>
       </c>
@@ -5982,8 +6357,11 @@
       <c r="N120" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>300</v>
       </c>
@@ -6020,8 +6398,11 @@
       <c r="N121" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>301</v>
       </c>
@@ -6055,8 +6436,11 @@
       <c r="N122" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>302</v>
       </c>
@@ -6093,8 +6477,11 @@
       <c r="N123" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>50</v>
       </c>
@@ -6137,8 +6524,11 @@
       <c r="N124" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>303</v>
       </c>
@@ -6172,8 +6562,11 @@
       <c r="N125" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>304</v>
       </c>
@@ -6207,8 +6600,11 @@
       <c r="N126" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>305</v>
       </c>
@@ -6245,8 +6641,11 @@
       <c r="N127" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>51</v>
       </c>
@@ -6287,10 +6686,13 @@
         <v>101</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>180</v>
       </c>
@@ -6322,13 +6724,16 @@
         <v>102</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>230</v>
       </c>
@@ -6362,8 +6767,11 @@
       <c r="N130" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>228</v>
       </c>
@@ -6400,8 +6808,11 @@
       <c r="N131" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>306</v>
       </c>
@@ -6435,8 +6846,11 @@
       <c r="N132" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>237</v>
       </c>
@@ -6470,8 +6884,11 @@
       <c r="N133" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>307</v>
       </c>
@@ -6503,10 +6920,13 @@
         <v>102</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>52</v>
       </c>
@@ -6543,8 +6963,11 @@
       <c r="N135" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>53</v>
       </c>
@@ -6578,8 +7001,11 @@
       <c r="N136" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>308</v>
       </c>
@@ -6614,10 +7040,13 @@
         <v>102</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>54</v>
       </c>
@@ -6655,10 +7084,13 @@
         <v>102</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>309</v>
       </c>
@@ -6692,8 +7124,11 @@
       <c r="N139" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>310</v>
       </c>
@@ -6727,8 +7162,11 @@
       <c r="N140" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>311</v>
       </c>
@@ -6762,8 +7200,11 @@
       <c r="N141" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>232</v>
       </c>
@@ -6797,8 +7238,11 @@
       <c r="N142" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>55</v>
       </c>
@@ -6836,10 +7280,13 @@
         <v>101</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>182</v>
       </c>
@@ -6871,13 +7318,16 @@
         <v>102</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>183</v>
       </c>
@@ -6909,13 +7359,16 @@
         <v>102</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>187</v>
       </c>
@@ -6947,13 +7400,16 @@
         <v>102</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>56</v>
       </c>
@@ -6987,8 +7443,11 @@
       <c r="N147" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -7022,8 +7481,11 @@
       <c r="N148" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>57</v>
       </c>
@@ -7063,8 +7525,11 @@
       <c r="N149" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>231</v>
       </c>
@@ -7101,8 +7566,11 @@
       <c r="N150" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -7139,8 +7607,11 @@
       <c r="N151" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -7174,8 +7645,11 @@
       <c r="N152" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>249</v>
       </c>
@@ -7204,16 +7678,19 @@
         <v>102</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>250</v>
       </c>
@@ -7242,16 +7719,19 @@
         <v>102</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>251</v>
       </c>
@@ -7280,16 +7760,19 @@
         <v>102</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>190</v>
       </c>
@@ -7326,8 +7809,11 @@
       <c r="N156" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>191</v>
       </c>
@@ -7364,8 +7850,11 @@
       <c r="N157" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>189</v>
       </c>
@@ -7402,8 +7891,11 @@
       <c r="N158" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -7437,8 +7929,11 @@
       <c r="N159" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>61</v>
       </c>
@@ -7464,7 +7959,7 @@
         <v>102</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>102</v>
@@ -7472,8 +7967,11 @@
       <c r="N160" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>62</v>
       </c>
@@ -7507,8 +8005,11 @@
       <c r="N161" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>96</v>
       </c>
@@ -7543,16 +8044,19 @@
         <v>102</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>313</v>
       </c>
@@ -7586,8 +8090,11 @@
       <c r="N163" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>63</v>
       </c>
@@ -7627,8 +8134,11 @@
       <c r="N164" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>194</v>
       </c>
@@ -7660,13 +8170,16 @@
         <v>102</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>233</v>
       </c>
@@ -7703,8 +8216,11 @@
       <c r="N166" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>64</v>
       </c>
@@ -7736,13 +8252,16 @@
         <v>102</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>244</v>
       </c>
@@ -7776,8 +8295,11 @@
       <c r="N168" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>65</v>
       </c>
@@ -7811,8 +8333,11 @@
       <c r="N169" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>314</v>
       </c>
@@ -7846,8 +8371,11 @@
       <c r="N170" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>235</v>
       </c>
@@ -7881,8 +8409,11 @@
       <c r="N171" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>201</v>
       </c>
@@ -7914,13 +8445,16 @@
         <v>102</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>315</v>
       </c>
@@ -7954,8 +8488,11 @@
       <c r="N173" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>316</v>
       </c>
@@ -7989,8 +8526,11 @@
       <c r="N174" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>199</v>
       </c>
@@ -8022,13 +8562,16 @@
         <v>102</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>67</v>
       </c>
@@ -8060,13 +8603,16 @@
         <v>102</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -8098,13 +8644,16 @@
         <v>102</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>66</v>
       </c>
@@ -8136,16 +8685,19 @@
         <v>101</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>101</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>236</v>
       </c>
@@ -8180,13 +8732,16 @@
         <v>101</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>203</v>
       </c>
@@ -8223,8 +8778,11 @@
       <c r="N180" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>239</v>
       </c>
@@ -8258,8 +8816,11 @@
       <c r="N181" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>268</v>
       </c>
@@ -8291,13 +8852,16 @@
         <v>102</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N182" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>68</v>
       </c>
@@ -8329,16 +8893,19 @@
         <v>102</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>101</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>317</v>
       </c>
@@ -8372,8 +8939,11 @@
       <c r="N184" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>318</v>
       </c>
@@ -8407,8 +8977,11 @@
       <c r="N185" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>132</v>
       </c>
@@ -8445,8 +9018,11 @@
       <c r="N186" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>340</v>
       </c>
@@ -8475,16 +9051,19 @@
         <v>102</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>319</v>
       </c>
@@ -8518,8 +9097,11 @@
       <c r="N188" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>71</v>
       </c>
@@ -8553,8 +9135,11 @@
       <c r="N189" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>207</v>
       </c>
@@ -8591,8 +9176,11 @@
       <c r="N190" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -8629,8 +9217,11 @@
       <c r="N191" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>139</v>
       </c>
@@ -8667,8 +9258,11 @@
       <c r="N192" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>140</v>
       </c>
@@ -8705,8 +9299,11 @@
       <c r="N193" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>72</v>
       </c>
@@ -8740,8 +9337,11 @@
       <c r="N194" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>265</v>
       </c>
@@ -8773,16 +9373,19 @@
         <v>102</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N195" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>269</v>
       </c>
@@ -8819,8 +9422,11 @@
       <c r="N196" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>99</v>
       </c>
@@ -8855,10 +9461,13 @@
         <v>102</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>205</v>
       </c>
@@ -8893,13 +9502,16 @@
         <v>101</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N198" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>240</v>
       </c>
@@ -8933,8 +9545,11 @@
       <c r="N199" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -8971,8 +9586,11 @@
       <c r="N200" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>73</v>
       </c>
@@ -9004,16 +9622,19 @@
         <v>102</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N201" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>320</v>
       </c>
@@ -9042,13 +9663,16 @@
         <v>102</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N202" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>211</v>
       </c>
@@ -9077,7 +9701,7 @@
         <v>101</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>102</v>
@@ -9085,8 +9709,11 @@
       <c r="N203" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>74</v>
       </c>
@@ -9126,8 +9753,11 @@
       <c r="N204" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>241</v>
       </c>
@@ -9153,7 +9783,7 @@
         <v>102</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>102</v>
@@ -9161,8 +9791,11 @@
       <c r="N205" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>242</v>
       </c>
@@ -9194,10 +9827,13 @@
         <v>102</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>75</v>
       </c>
@@ -9234,8 +9870,11 @@
       <c r="N207" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>243</v>
       </c>
@@ -9269,8 +9908,11 @@
       <c r="N208" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>76</v>
       </c>
@@ -9304,8 +9946,11 @@
       <c r="N209" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>77</v>
       </c>
@@ -9331,29 +9976,45 @@
         <v>102</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N210" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O210" s="1" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E211:M1048576" xr:uid="{25A89B9D-DA12-4A05-96E7-E9E70DBF5FC9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E211:N1048576" xr:uid="{25A89B9D-DA12-4A05-96E7-E9E70DBF5FC9}">
       <formula1>"✅,❎"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:M210 N2:N1048576" xr:uid="{DA3F5986-2AE7-49B9-899D-572DDD23394A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:N210 O2:O1048576" xr:uid="{DA3F5986-2AE7-49B9-899D-572DDD23394A}">
       <formula1>"❎,✅"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{572D4D07-93E5-4D71-AD89-A4D32308ED51}"/>
+    <hyperlink ref="F1" r:id="rId2" xr:uid="{82C3620C-6DE8-40C9-A5DC-B51C9557842C}"/>
+    <hyperlink ref="G1" r:id="rId3" xr:uid="{E35935C8-BBFA-47A2-81F9-16681CB8E809}"/>
+    <hyperlink ref="H1" r:id="rId4" xr:uid="{895A9710-E416-42F9-8C13-A14A07BE2EB1}"/>
+    <hyperlink ref="I1" r:id="rId5" xr:uid="{79324DA0-4CFA-4215-B589-06F170A43B4F}"/>
+    <hyperlink ref="J1" r:id="rId6" xr:uid="{1BD99EDA-64EB-4D33-9C22-80DE9C479A48}"/>
+    <hyperlink ref="K1" r:id="rId7" location="available-indicators" xr:uid="{EFBE5CDA-D386-47D5-9D46-F98C23D65BED}"/>
+    <hyperlink ref="M1" r:id="rId8" xr:uid="{01DAF0C8-E1B0-46F7-A5B1-926A7E6636CC}"/>
+    <hyperlink ref="N1" r:id="rId9" xr:uid="{46F0E14B-458B-4BB2-80C3-535EE5C46685}"/>
+    <hyperlink ref="O1" r:id="rId10" xr:uid="{1A9BE3F9-074E-4A6A-A5DD-1E10314DC51D}"/>
+    <hyperlink ref="L1" r:id="rId11" location="examples" xr:uid="{6253ABC1-4700-46FC-AA9C-57D7124C1611}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ta/ind.xlsx
+++ b/ta/ind.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09410D51-2545-4C28-89A7-CCB98DD54D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595C6562-298F-4C7C-8C2E-20424FC4C684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ta/ind.xlsx
+++ b/ta/ind.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\ta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\■\ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505D9627-E1FA-4E9B-B2A2-0EB2CA979B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EA2303-3105-4810-ADF4-D2A51FD3A12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1230,13 +1230,13 @@
     <tableColumn id="7" xr3:uid="{D2BA039E-10A9-414D-B17D-FB19508FCEB4}" name="tt" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{F554DD79-31B8-4647-A2C7-D6C5404040D4}" name="tc2" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{017A7E09-53A8-4CEF-AE3F-5E6ECC9E1B62}" name="mio" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{26932533-7871-4D21-AB8A-65FE974F09E9}" name="mv" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{ABD9386F-EEDE-4C88-907E-3AEF79082283}" name="pc" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{FEAF1EE7-AB95-4690-86A4-73E18ED40FA6}" name="js" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{A783F806-3E82-4F72-A8D5-5CA8B2D7AFF6}" name="js2" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{2FB839E2-A84F-4D1B-89CF-1FFC3B114A08}" name="py" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{38EF0105-FED7-4CB6-9E15-CB2F32D3AB5C}" name="py2" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{7BE96C0B-1FFA-45C1-809C-F3548F119714}" name="mat" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{26932533-7871-4D21-AB8A-65FE974F09E9}" name="mv" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{ABD9386F-EEDE-4C88-907E-3AEF79082283}" name="pc" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{FEAF1EE7-AB95-4690-86A4-73E18ED40FA6}" name="js" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{A783F806-3E82-4F72-A8D5-5CA8B2D7AFF6}" name="js2" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2FB839E2-A84F-4D1B-89CF-1FFC3B114A08}" name="py" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{38EF0105-FED7-4CB6-9E15-CB2F32D3AB5C}" name="py2" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{7BE96C0B-1FFA-45C1-809C-F3548F119714}" name="mat" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:P218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
